--- a/biology/Mycologie/Heterobasidion/Heterobasidion.xlsx
+++ b/biology/Mycologie/Heterobasidion/Heterobasidion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterobasidion est un genre de champignons de la famille des Bondarzewiaceae.
 L'espèce la plus connue du genre est le Polypore du pin, Heterobasidion annosum, qui est vecteur de la maladie du rond.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 novembre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 novembre 2013) :
 Heterobasidion abietinum
 Heterobasidion annosum
 Heterobasidion araucariae
@@ -527,7 +541,7 @@
 Heterobasidion occidentale
 Heterobasidion orientale
 Heterobasidion parviporum
-Selon Index Fungorum                                      (2 novembre 2013)[2] :
+Selon Index Fungorum                                      (2 novembre 2013) :
 Heterobasidion abietinum Niemelä &amp; Korhonen 1998
 Heterobasidion annosum (Fr.) Bref. 1888
 Heterobasidion araucariae P.K. Buchanan 1988
